--- a/source/class_schedule_xlsx_w_exercises.xlsx
+++ b/source/class_schedule_xlsx_w_exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82454BFB-A410-4F45-A291-6B580CC7C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4BD90-C160-634D-AF1B-436BFE983FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_dataframe.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   <si>
     <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
 - `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,33 +873,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -910,83 +910,83 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
@@ -994,104 +994,104 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1100,18 +1100,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1119,21 +1119,21 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1142,18 +1142,18 @@
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>5</v>
@@ -1161,87 +1161,87 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx_w_exercises.xlsx
+++ b/source/class_schedule_xlsx_w_exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4BD90-C160-634D-AF1B-436BFE983FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402B81B-1946-884F-BF40-5B6D7873FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -204,14 +204,6 @@
 - Groupby / Split-Apply-Combine</t>
   </si>
   <si>
-    <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
-- `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
-- `Editing Specific Entries &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
-- `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
-- `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>**Final Project Report and Presentation Due**</t>
   </si>
   <si>
@@ -442,6 +434,10 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Data Cleaning (through the missing data subsection on left side bar) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -845,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,25 +869,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>42</v>
@@ -899,7 +895,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -910,41 +906,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>44</v>
@@ -952,41 +948,41 @@
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
@@ -994,41 +990,41 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
@@ -1036,7 +1032,7 @@
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1050,34 +1046,34 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
@@ -1091,7 +1087,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1105,13 +1101,13 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1119,13 +1115,13 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>28</v>
@@ -1133,7 +1129,7 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1147,7 +1143,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -1161,13 +1157,13 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>30</v>
@@ -1175,34 +1171,34 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -1210,13 +1206,13 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>31</v>
@@ -1224,24 +1220,24 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx_w_exercises.xlsx
+++ b/source/class_schedule_xlsx_w_exercises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402B81B-1946-884F-BF40-5B6D7873FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35E943-1DAE-684C-BAC9-FBAF4EA259C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -69,13 +69,6 @@
 - `Parquet Format &lt;parquet.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
-- Categoricals: WM 12.1
-- **Project Strategy Plan Due**</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -438,6 +431,13 @@
   <si>
     <t>- `Data Cleaning (through the missing data subsection on left side bar) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM 8.3
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- Categoricals: WM 12.1
+- **Project Strategy Plan Due**</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,33 +869,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -906,208 +906,208 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1115,41 +1115,41 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>5</v>
@@ -1157,87 +1157,87 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
